--- a/xlsx/政策_政策_外交政策_intext.xlsx
+++ b/xlsx/政策_政策_外交政策_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>外交政策</t>
   </si>
@@ -288,306 +288,6 @@
   </si>
   <si>
     <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://ar.wikipedia.org/wiki/%D8%B3%D9%8A%D8%A7%D8%B3%D8%A9_%D8%AE%D8%A7%D8%B1%D8%AC%D9%8A%D8%A9</t>
-  </si>
-  <si>
-    <t>سياسة خارجية – 阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://az.wikipedia.org/wiki/Xarici_siyas%C9%99t</t>
-  </si>
-  <si>
-    <t>Xarici siyasət – 阿塞拜疆语</t>
-  </si>
-  <si>
-    <t>https://be.wikipedia.org/wiki/%D0%97%D0%BD%D0%B5%D1%88%D0%BD%D1%8F%D1%8F_%D0%BF%D0%B0%D0%BB%D1%96%D1%82%D1%8B%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Знешняя палітыка – 白俄罗斯语</t>
-  </si>
-  <si>
-    <t>https://be-x-old.wikipedia.org/wiki/%D0%97%D1%8C%D0%BD%D0%B5%D1%88%D0%BD%D1%8F%D1%8F_%D0%BF%D0%B0%D0%BB%D1%96%D1%82%D1%8B%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Зьнешняя палітыка – Belarusian (Taraškievica orthography)</t>
-  </si>
-  <si>
-    <t>https://bg.wikipedia.org/wiki/%D0%92%D1%8A%D0%BD%D1%88%D0%BD%D0%B0_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Външна политика – 保加利亚语</t>
-  </si>
-  <si>
-    <t>https://ca.wikipedia.org/wiki/Pol%C3%ADtica_exterior</t>
-  </si>
-  <si>
-    <t>Política exterior – 加泰罗尼亚语</t>
-  </si>
-  <si>
-    <t>https://cy.wikipedia.org/wiki/Polisi_tramor</t>
-  </si>
-  <si>
-    <t>Polisi tramor – 威尔士语</t>
-  </si>
-  <si>
-    <t>https://da.wikipedia.org/wiki/Udenrigspolitik</t>
-  </si>
-  <si>
-    <t>Udenrigspolitik – 丹麦语</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Au%C3%9Fenpolitik</t>
-  </si>
-  <si>
-    <t>Außenpolitik – 德语</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Foreign_policy</t>
-  </si>
-  <si>
-    <t>Foreign policy – 英语</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Pol%C3%ADtica_exterior</t>
-  </si>
-  <si>
-    <t>Política exterior – 西班牙语</t>
-  </si>
-  <si>
-    <t>https://et.wikipedia.org/wiki/V%C3%A4lispoliitika</t>
-  </si>
-  <si>
-    <t>Välispoliitika – 爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://eu.wikipedia.org/wiki/Kanpo-politika</t>
-  </si>
-  <si>
-    <t>Kanpo-politika – 巴斯克语</t>
-  </si>
-  <si>
-    <t>https://fa.wikipedia.org/wiki/%D8%B3%DB%8C%D8%A7%D8%B3%D8%AA_%D8%AE%D8%A7%D8%B1%D8%AC%DB%8C</t>
-  </si>
-  <si>
-    <t>سیاست خارجی – 波斯语</t>
-  </si>
-  <si>
-    <t>https://fi.wikipedia.org/wiki/Ulkopolitiikka</t>
-  </si>
-  <si>
-    <t>Ulkopolitiikka – 芬兰语</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Politique_%C3%A9trang%C3%A8re</t>
-  </si>
-  <si>
-    <t>Politique étrangère – 法语</t>
-  </si>
-  <si>
-    <t>https://gu.wikipedia.org/wiki/%E0%AA%B5%E0%AA%BF%E0%AA%A6%E0%AB%87%E0%AA%B6_%E0%AA%A8%E0%AB%80%E0%AA%A4%E0%AA%BF</t>
-  </si>
-  <si>
-    <t>વિદેશ નીતિ – 古吉拉特语</t>
-  </si>
-  <si>
-    <t>https://he.wikipedia.org/wiki/%D7%9E%D7%93%D7%99%D7%A0%D7%99%D7%95%D7%AA_%D7%97%D7%95%D7%A5</t>
-  </si>
-  <si>
-    <t>מדיניות חוץ – 希伯来语</t>
-  </si>
-  <si>
-    <t>https://hi.wikipedia.org/wiki/%E0%A4%B5%E0%A4%BF%E0%A4%A6%E0%A5%87%E0%A4%B6_%E0%A4%A8%E0%A5%80%E0%A4%A4%E0%A4%BF</t>
-  </si>
-  <si>
-    <t>विदेश नीति – 印地语</t>
-  </si>
-  <si>
-    <t>https://hr.wikipedia.org/wiki/Vanjska_politika</t>
-  </si>
-  <si>
-    <t>Vanjska politika – 克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://hy.wikipedia.org/wiki/%D4%B1%D6%80%D5%BF%D5%A1%D6%84%D5%AB%D5%B6_%D6%84%D5%A1%D5%B2%D5%A1%D6%84%D5%A1%D5%AF%D5%A1%D5%B6%D5%B8%D6%82%D5%A9%D5%B5%D5%B8%D6%82%D5%B6</t>
-  </si>
-  <si>
-    <t>Արտաքին քաղաքականություն – 亚美尼亚语</t>
-  </si>
-  <si>
-    <t>https://id.wikipedia.org/wiki/Kebijakan_luar_negeri</t>
-  </si>
-  <si>
-    <t>Kebijakan luar negeri – 印度尼西亚语</t>
-  </si>
-  <si>
-    <t>https://it.wikipedia.org/wiki/Politica_estera</t>
-  </si>
-  <si>
-    <t>Politica estera – 意大利语</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>外交政策 – 日语</t>
-  </si>
-  <si>
-    <t>https://ka.wikipedia.org/wiki/%E1%83%A1%E1%83%90%E1%83%92%E1%83%90%E1%83%A0%E1%83%94%E1%83%9D_%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%90</t>
-  </si>
-  <si>
-    <t>საგარეო პოლიტიკა – 格鲁吉亚语</t>
-  </si>
-  <si>
-    <t>https://kk.wikipedia.org/wiki/%D0%A1%D1%8B%D1%80%D1%82%D2%9B%D1%8B_%D1%81%D0%B0%D1%8F%D1%81%D0%B0%D1%82</t>
-  </si>
-  <si>
-    <t>Сыртқы саясат – 哈萨克语</t>
-  </si>
-  <si>
-    <t>https://ko.wikipedia.org/wiki/%EC%99%B8%EA%B5%90_%EC%A0%95%EC%B1%85</t>
-  </si>
-  <si>
-    <t>외교 정책 – 韩语</t>
-  </si>
-  <si>
-    <t>https://krc.wikipedia.org/wiki/%D0%A2%D1%8B%D1%88_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Тыш политика – 卡拉恰伊巴尔卡尔语</t>
-  </si>
-  <si>
-    <t>https://lt.wikipedia.org/wiki/U%C5%BEsienio_politika</t>
-  </si>
-  <si>
-    <t>Užsienio politika – 立陶宛语</t>
-  </si>
-  <si>
-    <t>https://ms.wikipedia.org/wiki/Dasar_luar_negeri</t>
-  </si>
-  <si>
-    <t>Dasar luar negeri – 马来语</t>
-  </si>
-  <si>
-    <t>https://nl.wikipedia.org/wiki/Buitenlandse_politiek</t>
-  </si>
-  <si>
-    <t>Buitenlandse politiek – 荷兰语</t>
-  </si>
-  <si>
-    <t>https://no.wikipedia.org/wiki/Utenrikspolitikk</t>
-  </si>
-  <si>
-    <t>Utenrikspolitikk – 挪威语</t>
-  </si>
-  <si>
-    <t>https://pl.wikipedia.org/wiki/Polityka_zagraniczna</t>
-  </si>
-  <si>
-    <t>Polityka zagraniczna – 波兰语</t>
-  </si>
-  <si>
-    <t>https://pt.wikipedia.org/wiki/Pol%C3%ADtica_externa</t>
-  </si>
-  <si>
-    <t>Política externa – 葡萄牙语</t>
-  </si>
-  <si>
-    <t>https://qu.wikipedia.org/wiki/Huk_nasyunkuna_rimanakuy_qhawaq</t>
-  </si>
-  <si>
-    <t>Huk nasyunkuna rimanakuy qhawaq – 克丘亚语</t>
-  </si>
-  <si>
-    <t>https://ro.wikipedia.org/wiki/Politic%C4%83_extern%C4%83</t>
-  </si>
-  <si>
-    <t>Politică externă – 罗马尼亚语</t>
-  </si>
-  <si>
-    <t>https://ru.wikipedia.org/wiki/%D0%92%D0%BD%D0%B5%D1%88%D0%BD%D1%8F%D1%8F_%D0%BF%D0%BE%D0%BB%D0%B8%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Внешняя политика – 俄语</t>
-  </si>
-  <si>
-    <t>https://sh.wikipedia.org/wiki/Spoljna_politika</t>
-  </si>
-  <si>
-    <t>Spoljna politika – 塞尔维亚-克罗地亚语</t>
-  </si>
-  <si>
-    <t>https://si.wikipedia.org/wiki/%E0%B7%80%E0%B7%92%E0%B6%AF%E0%B7%9A%E0%B7%81_%E0%B6%B4%E2%80%8D%E0%B7%8A%E2%80%8D%E0%B6%BB%E0%B6%AD%E0%B7%92%E0%B6%B4%E0%B6%AD%E0%B7%8A%E0%B6%AD%E0%B7%92</t>
-  </si>
-  <si>
-    <t>විදේශ ප‍්‍රතිපත්ති – 僧伽罗语</t>
-  </si>
-  <si>
-    <t>https://simple.wikipedia.org/wiki/Foreign_policy</t>
-  </si>
-  <si>
-    <t>Foreign policy – Simple English</t>
-  </si>
-  <si>
-    <t>https://sk.wikipedia.org/wiki/Zahrani%C4%8Dn%C3%A1_politika</t>
-  </si>
-  <si>
-    <t>Zahraničná politika – 斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://sl.wikipedia.org/wiki/Zunanja_politika</t>
-  </si>
-  <si>
-    <t>Zunanja politika – 斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://sv.wikipedia.org/wiki/Utrikespolitik</t>
-  </si>
-  <si>
-    <t>Utrikespolitik – 瑞典语</t>
-  </si>
-  <si>
-    <t>https://sw.wikipedia.org/wiki/Sera_za_kigeni</t>
-  </si>
-  <si>
-    <t>Sera za kigeni – 斯瓦希里语</t>
-  </si>
-  <si>
-    <t>https://ta.wikipedia.org/wiki/%E0%AE%B5%E0%AF%86%E0%AE%B3%E0%AE%BF%E0%AE%A8%E0%AE%BE%E0%AE%9F%E0%AF%8D%E0%AE%9F%E0%AF%81%E0%AE%95%E0%AF%8D_%E0%AE%95%E0%AF%8A%E0%AE%B3%E0%AF%8D%E0%AE%95%E0%AF%88</t>
-  </si>
-  <si>
-    <t>வெளிநாட்டுக் கொள்கை – 泰米尔语</t>
-  </si>
-  <si>
-    <t>https://tl.wikipedia.org/wiki/Patakarang_panlabas</t>
-  </si>
-  <si>
-    <t>Patakarang panlabas – 他加禄语</t>
-  </si>
-  <si>
-    <t>https://tr.wikipedia.org/wiki/D%C4%B1%C5%9F_siyaset</t>
-  </si>
-  <si>
-    <t>Dış siyaset – 土耳其语</t>
-  </si>
-  <si>
-    <t>https://tt.wikipedia.org/wiki/%D0%A2%D1%8B%D1%88%D0%BA%D1%8B_%D1%81%D3%99%D1%8F%D1%81%D3%99%D1%82</t>
-  </si>
-  <si>
-    <t>Тышкы сәясәт – 鞑靼语</t>
-  </si>
-  <si>
-    <t>https://uk.wikipedia.org/wiki/%D0%97%D0%BE%D0%B2%D0%BD%D1%96%D1%88%D0%BD%D1%8F_%D0%BF%D0%BE%D0%BB%D1%96%D1%82%D0%B8%D0%BA%D0%B0</t>
-  </si>
-  <si>
-    <t>Зовнішня політика – 乌克兰语</t>
-  </si>
-  <si>
-    <t>https://xmf.wikipedia.org/wiki/%E1%83%92%E1%83%90%E1%83%9A%E1%83%94%E1%83%9C%E1%83%A3%E1%83%A0%E1%83%98_%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%90</t>
-  </si>
-  <si>
-    <t>გალენური პოლიტიკა – Mingrelian</t>
   </si>
 </sst>
 </file>
@@ -936,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2246,1456 +1946,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>48</v>
-      </c>
-      <c r="E49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>49</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>51</v>
-      </c>
-      <c r="E52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>52</v>
-      </c>
-      <c r="E53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>54</v>
-      </c>
-      <c r="E55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>55</v>
-      </c>
-      <c r="E56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56</v>
-      </c>
-      <c r="E57" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>57</v>
-      </c>
-      <c r="E58" t="s">
-        <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>58</v>
-      </c>
-      <c r="E59" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>59</v>
-      </c>
-      <c r="E60" t="s">
-        <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>60</v>
-      </c>
-      <c r="E61" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>61</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>62</v>
-      </c>
-      <c r="E63" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>64</v>
-      </c>
-      <c r="E65" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>65</v>
-      </c>
-      <c r="E66" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>66</v>
-      </c>
-      <c r="E67" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>68</v>
-      </c>
-      <c r="E69" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>69</v>
-      </c>
-      <c r="E70" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>70</v>
-      </c>
-      <c r="E71" t="s">
-        <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>71</v>
-      </c>
-      <c r="E72" t="s">
-        <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>72</v>
-      </c>
-      <c r="E73" t="s">
-        <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73</v>
-      </c>
-      <c r="E74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>74</v>
-      </c>
-      <c r="E75" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>75</v>
-      </c>
-      <c r="E76" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>77</v>
-      </c>
-      <c r="E78" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>4</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>78</v>
-      </c>
-      <c r="E79" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>79</v>
-      </c>
-      <c r="E80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>80</v>
-      </c>
-      <c r="E81" t="s">
-        <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>81</v>
-      </c>
-      <c r="E82" t="s">
-        <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>4</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>82</v>
-      </c>
-      <c r="E83" t="s">
-        <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>83</v>
-      </c>
-      <c r="E84" t="s">
-        <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>4</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>84</v>
-      </c>
-      <c r="E85" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
-        <v>4</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>85</v>
-      </c>
-      <c r="E86" t="s">
-        <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>4</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>86</v>
-      </c>
-      <c r="E87" t="s">
-        <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>4</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>87</v>
-      </c>
-      <c r="E88" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>4</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88</v>
-      </c>
-      <c r="E89" t="s">
-        <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89</v>
-      </c>
-      <c r="E90" t="s">
-        <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>4</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>90</v>
-      </c>
-      <c r="E91" t="s">
-        <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>91</v>
-      </c>
-      <c r="E92" t="s">
-        <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>4</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>92</v>
-      </c>
-      <c r="E93" t="s">
-        <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>4</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>94</v>
-      </c>
-      <c r="E95" t="s">
-        <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>4</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/政策_政策_外交政策_intext.xlsx
+++ b/xlsx/政策_政策_外交政策_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E6%94%BF%E7%AD%96_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>外交政策 (雜誌)</t>
+    <t>外交政策 (杂志)</t>
   </si>
   <si>
     <t>政策_政策_外交政策</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
+    <t>主权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%A9%E7%9B%8A</t>
@@ -53,79 +53,79 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9D%E5%89%8A</t>
   </si>
   <si>
-    <t>剝削</t>
+    <t>剥削</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%95%B7</t>
   </si>
   <si>
-    <t>外長</t>
+    <t>外长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E7%9D%A3</t>
   </si>
   <si>
-    <t>監督</t>
+    <t>监督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>哲學家</t>
+    <t>哲学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E8%AA%BC</t>
   </si>
   <si>
-    <t>友誼</t>
+    <t>友谊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A6%AC%E5%8F%B2%E8%A9%A9</t>
   </si>
   <si>
-    <t>荷馬史詩</t>
+    <t>荷马史诗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀時期</t>
+    <t>中世纪时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%AF%E6%B4%9B%C2%B7%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>尼可洛·馬基維利</t>
+    <t>尼可洛·马基维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E5%8D%9A%E4%B8%B9</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
   </si>
   <si>
-    <t>湯瑪斯·霍布斯</t>
+    <t>汤玛斯·霍布斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E9%9B%85%E5%85%8B%C2%B7%E7%9B%A7%E9%A8%B7</t>
   </si>
   <si>
-    <t>讓-雅克·盧騷</t>
+    <t>让-雅克·卢骚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>規則</t>
+    <t>规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國族國家</t>
+    <t>国族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%88%88%E7%89%B9%E5%88%A9%E5%B8%83%C2%B7%E8%B2%BB%E5%B8%8C%E7%89%B9</t>
   </si>
   <si>
-    <t>約翰·戈特利布·費希特</t>
+    <t>约翰·戈特利布·费希特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E9%BB%91%E6%A0%BC%E5%B0%94</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>世界大戰</t>
+    <t>世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AF%86</t>
@@ -257,31 +257,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%84%E7%96%87</t>
   </si>
   <si>
-    <t>範疇</t>
+    <t>范畴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E6%91%A9%E6%A0%B9%E7%B4%A2</t>
   </si>
   <si>
-    <t>漢斯·摩根索</t>
+    <t>汉斯·摩根索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
